--- a/Solar Tool/Results/Global comparison.xlsx
+++ b/Solar Tool/Results/Global comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus\Documents\GitHub\TFG-electrica\Solar Tool\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA80C2E-A288-4FE8-94EE-695386556954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3F8E8A-3BFC-47D6-8C43-FAC1B0C7412B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Backtrack</t>
   </si>
@@ -66,10 +66,49 @@
     <t>PR (pu)</t>
   </si>
   <si>
-    <t>30º</t>
+    <t>Bifacial gain (%)</t>
   </si>
   <si>
-    <t>Bifacial gain (%)</t>
+    <t>Fixed Tilt</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>LONGi_Green_Energy_Technology_Co___Ltd__LR6_72BP_350M</t>
+  </si>
+  <si>
+    <t>inverter</t>
+  </si>
+  <si>
+    <t>ABB__PVI_10_0_I_OUTD_x_US_480_y_z__480V_</t>
+  </si>
+  <si>
+    <t>tracking</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>modules_per_string</t>
+  </si>
+  <si>
+    <t>strings</t>
+  </si>
+  <si>
+    <t>gcr</t>
+  </si>
+  <si>
+    <t>pannel_azimuth</t>
+  </si>
+  <si>
+    <t>pannel_tilt</t>
+  </si>
+  <si>
+    <t>albedo</t>
   </si>
 </sst>
 </file>
@@ -105,10 +144,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -213,7 +251,7 @@
                   <c:v>Track</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30º</c:v>
+                  <c:v>Fixed Tilt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -225,13 +263,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>29.262066219011899</c:v>
+                  <c:v>12.844466363657499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.228922440000002</c:v>
+                  <c:v>12.839702888266901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.249051469999999</c:v>
+                  <c:v>11.249051467464801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -305,7 +343,7 @@
                         <c:v>Track</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>30º</c:v>
+                        <c:v>Fixed Tilt</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -323,13 +361,13 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>2091.1632949584</c:v>
+                        <c:v>2294.7693100322999</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2088.7947319999998</c:v>
+                        <c:v>2293.9182760674798</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2009.7353479999999</c:v>
+                        <c:v>2009.73534778765</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -347,7 +385,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Tracking option'!$A$4</c15:sqref>
@@ -374,7 +412,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Tracking option'!$B$1:$D$1</c15:sqref>
@@ -390,14 +428,14 @@
                         <c:v>Track</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>30º</c:v>
+                        <c:v>Fixed Tilt</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Tracking option'!$B$4:$D$4</c15:sqref>
@@ -408,18 +446,18 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>2.824322952772</c:v>
+                        <c:v>5.4495356183982198</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2.9514949210000001</c:v>
+                        <c:v>5.5263320379299703</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>7.8084900910000004</c:v>
+                        <c:v>7.8084900910490198</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-1114-46DC-889A-973B18623D9D}"/>
                   </c:ext>
@@ -432,7 +470,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Tracking option'!$A$5</c15:sqref>
@@ -459,7 +497,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Tracking option'!$B$1:$D$1</c15:sqref>
@@ -475,14 +513,14 @@
                         <c:v>Track</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>30º</c:v>
+                        <c:v>Fixed Tilt</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Tracking option'!$B$5:$D$5</c15:sqref>
@@ -493,18 +531,18 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>0.82848707583505998</c:v>
+                        <c:v>0.88626209304887205</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.82834620000000003</c:v>
+                        <c:v>0.88623649569491303</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.88607565499999996</c:v>
+                        <c:v>0.88607565547896805</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-1114-46DC-889A-973B18623D9D}"/>
                   </c:ext>
@@ -761,7 +799,7 @@
                   <c:v>Track</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30º</c:v>
+                  <c:v>Fixed Tilt</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -774,13 +812,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2091.1632949584</c:v>
+                  <c:v>2294.7693100322999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2088.7947319999998</c:v>
+                  <c:v>2293.9182760674798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2009.7353479999999</c:v>
+                  <c:v>2009.73534778765</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -855,7 +893,7 @@
                         <c:v>Track</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>30º</c:v>
+                        <c:v>Fixed Tilt</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -873,13 +911,13 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>29.262066219011899</c:v>
+                        <c:v>12.844466363657499</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>29.228922440000002</c:v>
+                        <c:v>12.839702888266901</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>11.249051469999999</c:v>
+                        <c:v>11.249051467464801</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -940,7 +978,7 @@
                         <c:v>Track</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>30º</c:v>
+                        <c:v>Fixed Tilt</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -958,18 +996,18 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>2.824322952772</c:v>
+                        <c:v>5.4495356183982198</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2.9514949210000001</c:v>
+                        <c:v>5.5263320379299703</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>7.8084900910000004</c:v>
+                        <c:v>7.8084900910490198</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-F6E2-46DC-A3A4-FA60207ECC44}"/>
                   </c:ext>
@@ -1025,7 +1063,7 @@
                         <c:v>Track</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>30º</c:v>
+                        <c:v>Fixed Tilt</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1043,18 +1081,18 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>0.82848707583505998</c:v>
+                        <c:v>0.88626209304887205</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.82834620000000003</c:v>
+                        <c:v>0.88623649569491303</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.88607565499999996</c:v>
+                        <c:v>0.88607565547896805</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-F6E2-46DC-A3A4-FA60207ECC44}"/>
                   </c:ext>
@@ -1311,7 +1349,7 @@
                   <c:v>Track</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30º</c:v>
+                  <c:v>Fixed Tilt</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1324,13 +1362,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.824322952772</c:v>
+                  <c:v>5.4495356183982198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9514949210000001</c:v>
+                  <c:v>5.5263320379299703</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8084900910000004</c:v>
+                  <c:v>7.8084900910490198</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1405,7 +1443,7 @@
                         <c:v>Track</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>30º</c:v>
+                        <c:v>Fixed Tilt</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1423,13 +1461,13 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>29.262066219011899</c:v>
+                        <c:v>12.844466363657499</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>29.228922440000002</c:v>
+                        <c:v>12.839702888266901</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>11.249051469999999</c:v>
+                        <c:v>11.249051467464801</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1490,7 +1528,7 @@
                         <c:v>Track</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>30º</c:v>
+                        <c:v>Fixed Tilt</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1508,18 +1546,18 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>2091.1632949584</c:v>
+                        <c:v>2294.7693100322999</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2088.7947319999998</c:v>
+                        <c:v>2293.9182760674798</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2009.7353479999999</c:v>
+                        <c:v>2009.73534778765</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-A78E-43BD-9C49-717B9B35F149}"/>
                   </c:ext>
@@ -1575,7 +1613,7 @@
                         <c:v>Track</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>30º</c:v>
+                        <c:v>Fixed Tilt</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1593,18 +1631,18 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>0.82848707583505998</c:v>
+                        <c:v>0.88626209304887205</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.82834620000000003</c:v>
+                        <c:v>0.88623649569491303</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.88607565499999996</c:v>
+                        <c:v>0.88607565547896805</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-A78E-43BD-9C49-717B9B35F149}"/>
                   </c:ext>
@@ -1861,7 +1899,7 @@
                   <c:v>Track</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30º</c:v>
+                  <c:v>Fixed Tilt</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1874,13 +1912,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.82848707583505998</c:v>
+                  <c:v>0.88626209304887205</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82834620000000003</c:v>
+                  <c:v>0.88623649569491303</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88607565499999996</c:v>
+                  <c:v>0.88607565547896805</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1955,7 +1993,7 @@
                         <c:v>Track</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>30º</c:v>
+                        <c:v>Fixed Tilt</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1973,13 +2011,13 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>29.262066219011899</c:v>
+                        <c:v>12.844466363657499</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>29.228922440000002</c:v>
+                        <c:v>12.839702888266901</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>11.249051469999999</c:v>
+                        <c:v>11.249051467464801</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2040,7 +2078,7 @@
                         <c:v>Track</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>30º</c:v>
+                        <c:v>Fixed Tilt</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2058,18 +2096,18 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>2091.1632949584</c:v>
+                        <c:v>2294.7693100322999</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2088.7947319999998</c:v>
+                        <c:v>2293.9182760674798</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2009.7353479999999</c:v>
+                        <c:v>2009.73534778765</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-AE2C-4CFD-A964-CA335061A8EB}"/>
                   </c:ext>
@@ -2125,7 +2163,7 @@
                         <c:v>Track</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>30º</c:v>
+                        <c:v>Fixed Tilt</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2143,18 +2181,18 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>2.824322952772</c:v>
+                        <c:v>5.4495356183982198</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2.9514949210000001</c:v>
+                        <c:v>5.5263320379299703</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>7.8084900910000004</c:v>
+                        <c:v>7.8084900910490198</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-AE2C-4CFD-A964-CA335061A8EB}"/>
                   </c:ext>
@@ -2501,7 +2539,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2667,7 +2704,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle sweep'!$A$4</c15:sqref>
@@ -2694,7 +2731,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle sweep'!$B$1:$N$1</c15:sqref>
@@ -2748,7 +2785,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle sweep'!$B$4:$N$4</c15:sqref>
@@ -2800,7 +2837,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-5841-48B7-962B-C2807A10AA36}"/>
                   </c:ext>
@@ -2813,7 +2850,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle sweep'!$A$5</c15:sqref>
@@ -2840,7 +2877,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle sweep'!$B$1:$N$1</c15:sqref>
@@ -2894,7 +2931,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle sweep'!$B$5:$N$5</c15:sqref>
@@ -2946,7 +2983,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-5841-48B7-962B-C2807A10AA36}"/>
                   </c:ext>
@@ -3594,7 +3631,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-6582-4462-9039-39923F024196}"/>
                   </c:ext>
@@ -3740,7 +3777,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-6582-4462-9039-39923F024196}"/>
                   </c:ext>
@@ -4388,7 +4425,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-01E0-4133-81A9-157B0CB3A58A}"/>
                   </c:ext>
@@ -4534,7 +4571,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-01E0-4133-81A9-157B0CB3A58A}"/>
                   </c:ext>
@@ -5182,7 +5219,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-A3C0-467F-96B1-29DA691C9CE9}"/>
                   </c:ext>
@@ -5328,7 +5365,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-A3C0-467F-96B1-29DA691C9CE9}"/>
                   </c:ext>
@@ -9845,14 +9882,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -9881,14 +9918,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
@@ -9919,14 +9956,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -9957,14 +9994,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -10448,10 +10485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10467,7 +10504,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -10475,13 +10512,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>29.262066219011899</v>
+        <v>12.844466363657499</v>
       </c>
       <c r="C2" s="1">
-        <v>29.228922440000002</v>
+        <v>12.839702888266901</v>
       </c>
       <c r="D2" s="1">
-        <v>11.249051469999999</v>
+        <v>11.249051467464801</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -10489,27 +10526,27 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>2091.1632949584</v>
+        <v>2294.7693100322999</v>
       </c>
       <c r="C3" s="1">
-        <v>2088.7947319999998</v>
+        <v>2293.9182760674798</v>
       </c>
       <c r="D3" s="1">
-        <v>2009.7353479999999</v>
+        <v>2009.73534778765</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>2.824322952772</v>
+        <v>5.4495356183982198</v>
       </c>
       <c r="C4" s="1">
-        <v>2.9514949210000001</v>
+        <v>5.5263320379299703</v>
       </c>
       <c r="D4" s="1">
-        <v>7.8084900910000004</v>
+        <v>7.8084900910490198</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -10517,13 +10554,98 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>0.82848707583505998</v>
+        <v>0.88626209304887205</v>
       </c>
       <c r="C5" s="1">
-        <v>0.82834620000000003</v>
+        <v>0.88623649569491303</v>
       </c>
       <c r="D5" s="1">
-        <v>0.88607565499999996</v>
+        <v>0.88607565547896805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>40.450000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>-3.73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -10536,8 +10658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF58313-CD02-44B2-B180-60025DF72031}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10547,43 +10669,43 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="2">
+      <c r="B1">
         <v>-60</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1">
         <v>-50</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1">
         <v>-40</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1">
         <v>-30</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1">
         <v>-20</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1">
         <v>-10</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1">
         <v>0</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1">
         <v>10</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1">
         <v>20</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1">
         <v>30</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1">
         <v>40</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1">
         <v>50</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1">
         <v>60</v>
       </c>
     </row>
@@ -10683,7 +10805,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>46.020092488816601</v>

--- a/Solar Tool/Results/Global comparison.xlsx
+++ b/Solar Tool/Results/Global comparison.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus\Documents\GitHub\TFG-electrica\Solar Tool\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3F8E8A-3BFC-47D6-8C43-FAC1B0C7412B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325D4C50-CEE2-4BCE-817E-F25AFFF2EF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking option" sheetId="1" r:id="rId1"/>
-    <sheet name="Angle sweep" sheetId="2" r:id="rId2"/>
+    <sheet name="Angle sweep 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Angle Sweep 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="28">
   <si>
     <t>Backtrack</t>
   </si>
@@ -109,6 +110,18 @@
   </si>
   <si>
     <t>albedo</t>
+  </si>
+  <si>
+    <t>Fixed tilt</t>
+  </si>
+  <si>
+    <t>row height</t>
+  </si>
+  <si>
+    <t>row width</t>
+  </si>
+  <si>
+    <t>bifaciality</t>
   </si>
 </sst>
 </file>
@@ -263,13 +276,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12.844466363657499</c:v>
+                  <c:v>25.86256496</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.839702888266901</c:v>
+                  <c:v>25.852916910000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.249051467464801</c:v>
+                  <c:v>22.628106379999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -361,13 +374,13 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>2294.7693100322999</c:v>
+                        <c:v>2310.2797220000002</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2293.9182760674798</c:v>
+                        <c:v>2309.4178700000002</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2009.73534778765</c:v>
+                        <c:v>2021.3484390000001</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -446,13 +459,13 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>5.4495356183982198</c:v>
+                        <c:v>5.3324695159999997</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5.5263320379299703</c:v>
+                        <c:v>5.4103424990000004</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>7.8084900910490198</c:v>
+                        <c:v>7.3810254720000001</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -531,13 +544,13 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>0.88626209304887205</c:v>
+                        <c:v>0.82554258599999997</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.88623649569491303</c:v>
+                        <c:v>0.82476116300000002</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.88607565547896805</c:v>
+                        <c:v>0.80060377199999999</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -711,6 +724,2245 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Angle Sweep 2'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Yield (h)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Angle Sweep 2'!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Angle Sweep 2'!$B$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2021.3484390000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2023.3880590000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025.0392790000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2026.354703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2027.349316</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2027.9127100000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2028.032248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2027.701611</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2026.9128479999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2025.6661369999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023.9600049999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-995C-4663-8336-1931CE24CB9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="592440464"/>
+        <c:axId val="592438544"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Energy (MWh)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>40</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$B$2:$L$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>22.628106379999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>22.650939019999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>22.669423720000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>22.684149309999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>22.69528356</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>22.701590499999998</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>22.70292869</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>22.699227350000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>22.6903975</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>22.676441109999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>22.657341710000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-995C-4663-8336-1931CE24CB9A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Bifacial gain (%)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>40</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$B$4:$L$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>7.3810254720000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.4066773389999998</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.4362122230000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7.4701644749999998</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7.5092458000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7.5513110909999996</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7.595614683</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.6418931099999998</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7.6897286840000003</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7.7390607170000001</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>7.7898421730000003</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-995C-4663-8336-1931CE24CB9A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>PR (pu)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>40</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$B$5:$L$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.80060377199999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.80029604700000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.79999565299999997</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.79969710800000005</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.79940292099999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.79912435599999998</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.79885106299999997</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.79857933699999994</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.79830546300000005</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.79802832999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.797747184</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-995C-4663-8336-1931CE24CB9A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="592440464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592438544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="592438544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592440464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1664260717410319E-2"/>
+          <c:y val="0.18097222222222226"/>
+          <c:w val="0.88389129483814521"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Angle Sweep 2'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bifacial gain (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Angle Sweep 2'!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Angle Sweep 2'!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.3810254720000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4066773389999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4362122230000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4701644749999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5092458000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5513110909999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.595614683</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6418931099999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6897286840000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.7390607170000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.7898421730000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A55D-4728-B4CB-21F1212BEC15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="592440464"/>
+        <c:axId val="592438544"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Energy (MWh)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>40</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$B$2:$L$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>22.628106379999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>22.650939019999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>22.669423720000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>22.684149309999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>22.69528356</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>22.701590499999998</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>22.70292869</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>22.699227350000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>22.6903975</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>22.676441109999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>22.657341710000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-A55D-4728-B4CB-21F1212BEC15}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Yield (h)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>40</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$B$3:$L$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>2021.3484390000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2023.3880590000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2025.0392790000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2026.354703</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2027.349316</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2027.9127100000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2028.032248</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2027.701611</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2026.9128479999999</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2025.6661369999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2023.9600049999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-A55D-4728-B4CB-21F1212BEC15}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>PR (pu)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>40</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$B$5:$L$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.80060377199999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.80029604700000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.79999565299999997</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.79969710800000005</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.79940292099999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.79912435599999998</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.79885106299999997</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.79857933699999994</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.79830546300000005</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.79802832999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.797747184</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-A55D-4728-B4CB-21F1212BEC15}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="592440464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592438544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="592438544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592440464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Angle Sweep 2'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR (pu)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Angle Sweep 2'!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Angle Sweep 2'!$B$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.80060377199999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80029604700000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79999565299999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79969710800000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79940292099999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79912435599999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79885106299999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79857933699999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79830546300000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79802832999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.797747184</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1AC6-4DE9-AFFB-9C2F23593355}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="592440464"/>
+        <c:axId val="592438544"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Energy (MWh)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>40</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$B$2:$L$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>22.628106379999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>22.650939019999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>22.669423720000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>22.684149309999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>22.69528356</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>22.701590499999998</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>22.70292869</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>22.699227350000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>22.6903975</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>22.676441109999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>22.657341710000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-1AC6-4DE9-AFFB-9C2F23593355}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Yield (h)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>40</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$B$3:$L$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>2021.3484390000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2023.3880590000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2025.0392790000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2026.354703</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2027.349316</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2027.9127100000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2028.032248</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2027.701611</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2026.9128479999999</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2025.6661369999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2023.9600049999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-1AC6-4DE9-AFFB-9C2F23593355}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Bifacial gain (%)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>40</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$B$4:$L$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>7.3810254720000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.4066773389999998</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.4362122230000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7.4701644749999998</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7.5092458000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7.5513110909999996</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7.595614683</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.6418931099999998</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7.6897286840000003</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7.7390607170000001</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>7.7898421730000003</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-1AC6-4DE9-AFFB-9C2F23593355}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="592440464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592438544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="592438544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592440464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -812,13 +3064,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2294.7693100322999</c:v>
+                  <c:v>2310.2797220000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2293.9182760674798</c:v>
+                  <c:v>2309.4178700000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2009.73534778765</c:v>
+                  <c:v>2021.3484390000001</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -911,13 +3163,13 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>12.844466363657499</c:v>
+                        <c:v>25.86256496</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>12.839702888266901</c:v>
+                        <c:v>25.852916910000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>11.249051467464801</c:v>
+                        <c:v>22.628106379999998</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -996,13 +3248,13 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>5.4495356183982198</c:v>
+                        <c:v>5.3324695159999997</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5.5263320379299703</c:v>
+                        <c:v>5.4103424990000004</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>7.8084900910490198</c:v>
+                        <c:v>7.3810254720000001</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1081,13 +3333,13 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>0.88626209304887205</c:v>
+                        <c:v>0.82554258599999997</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.88623649569491303</c:v>
+                        <c:v>0.82476116300000002</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.88607565547896805</c:v>
+                        <c:v>0.80060377199999999</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1362,13 +3614,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.4495356183982198</c:v>
+                  <c:v>5.3324695159999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5263320379299703</c:v>
+                  <c:v>5.4103424990000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8084900910490198</c:v>
+                  <c:v>7.3810254720000001</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1461,13 +3713,13 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>12.844466363657499</c:v>
+                        <c:v>25.86256496</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>12.839702888266901</c:v>
+                        <c:v>25.852916910000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>11.249051467464801</c:v>
+                        <c:v>22.628106379999998</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1546,13 +3798,13 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>2294.7693100322999</c:v>
+                        <c:v>2310.2797220000002</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2293.9182760674798</c:v>
+                        <c:v>2309.4178700000002</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2009.73534778765</c:v>
+                        <c:v>2021.3484390000001</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1631,13 +3883,13 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>0.88626209304887205</c:v>
+                        <c:v>0.82554258599999997</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.88623649569491303</c:v>
+                        <c:v>0.82476116300000002</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.88607565547896805</c:v>
+                        <c:v>0.80060377199999999</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1912,13 +4164,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.88626209304887205</c:v>
+                  <c:v>0.82554258599999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88623649569491303</c:v>
+                  <c:v>0.82476116300000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88607565547896805</c:v>
+                  <c:v>0.80060377199999999</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2011,13 +4263,13 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>12.844466363657499</c:v>
+                        <c:v>25.86256496</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>12.839702888266901</c:v>
+                        <c:v>25.852916910000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>11.249051467464801</c:v>
+                        <c:v>22.628106379999998</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2096,13 +4348,13 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>2294.7693100322999</c:v>
+                        <c:v>2310.2797220000002</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2293.9182760674798</c:v>
+                        <c:v>2309.4178700000002</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2009.73534778765</c:v>
+                        <c:v>2021.3484390000001</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2181,13 +4433,13 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>5.4495356183982198</c:v>
+                        <c:v>5.3324695159999997</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5.5263320379299703</c:v>
+                        <c:v>5.4103424990000004</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>7.8084900910490198</c:v>
+                        <c:v>7.3810254720000001</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2417,7 +4669,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Angle sweep'!$A$2</c:f>
+              <c:f>'Angle sweep 1'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2438,7 +4690,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Angle sweep'!$B$1:$N$1</c:f>
+              <c:f>'Angle sweep 1'!$B$1:$N$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2486,48 +4738,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Angle sweep'!$B$2:$N$2</c:f>
+              <c:f>'Angle sweep 1'!$B$2:$N$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5.4456806692749904</c:v>
+                  <c:v>11.190898300000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7382572538733596</c:v>
+                  <c:v>11.772092150000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2689046529999999</c:v>
+                  <c:v>12.82516369</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9502759231713904</c:v>
+                  <c:v>14.176501251057701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.9313639756896599</c:v>
+                  <c:v>16.12399903</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.9357646578489405</c:v>
+                  <c:v>18.117535879999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.7503159933855006</c:v>
+                  <c:v>19.732493955084699</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.50558842</c:v>
+                  <c:v>21.2030666547987</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.005576384053199</c:v>
+                  <c:v>22.155959679999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.249051469999999</c:v>
+                  <c:v>22.628106379999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.254202510000001</c:v>
+                  <c:v>22.657341709811401</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.013050134695201</c:v>
+                  <c:v>22.194585849999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.5482108872792</c:v>
+                  <c:v>21.29099866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2561,7 +4813,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$A$3</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$A$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2588,7 +4840,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$B$1:$N$1</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$B$1:$N$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2642,7 +4894,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$B$3:$N$3</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$B$3:$N$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2650,43 +4902,43 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="13"/>
                       <c:pt idx="0">
-                        <c:v>972.91553563069704</c:v>
+                        <c:v>999.67290400000002</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1025.18674318121</c:v>
+                        <c:v>1051.5904290000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1119.9912549999999</c:v>
+                        <c:v>1145.6603640000001</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1241.7238235663301</c:v>
+                        <c:v>1266.3741362820599</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>1417.00325438242</c:v>
+                        <c:v>1440.3423660000001</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>1596.44767777365</c:v>
+                        <c:v>1618.4232239999999</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>1741.9739575982401</c:v>
+                        <c:v>1762.68597917959</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>1876.909574</c:v>
+                        <c:v>1894.0509189105001</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>1966.23652632229</c:v>
+                        <c:v>1979.171998</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>2009.7353479999999</c:v>
+                        <c:v>2021.3484390000001</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>2010.6556230000001</c:v>
+                        <c:v>2023.9600046640001</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>1967.5717731997099</c:v>
+                        <c:v>1982.622439</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>1884.52442745033</c:v>
+                        <c:v>1901.905806</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2707,7 +4959,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$A$4</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$A$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2734,7 +4986,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$B$1:$N$1</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$B$1:$N$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2788,7 +5040,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$B$4:$N$4</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$B$4:$N$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2796,43 +5048,43 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="13"/>
                       <c:pt idx="0">
-                        <c:v>46.020092488816601</c:v>
+                        <c:v>44.61684125</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>33.426667085846901</c:v>
+                        <c:v>32.458009220000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>23.133837509999999</c:v>
+                        <c:v>22.51457018</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>15.670199336533299</c:v>
+                        <c:v>15.2810235370521</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>11.6709573201219</c:v>
+                        <c:v>11.4052723</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>9.5576568572570295</c:v>
+                        <c:v>9.3560612320000001</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>8.2538517955308599</c:v>
+                        <c:v>8.0863853539543697</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>7.8752400309999997</c:v>
+                        <c:v>7.61196584602747</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>7.7466087839824898</c:v>
+                        <c:v>7.3454053410000002</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>7.8084900910000004</c:v>
+                        <c:v>7.3810254720000001</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>8.1386970529999996</c:v>
+                        <c:v>7.7898421731673704</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>8.7164029427151402</c:v>
+                        <c:v>8.4123489730000003</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>9.6353484943634093</c:v>
+                        <c:v>9.3794306330000001</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2853,7 +5105,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$A$5</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$A$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2880,7 +5132,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$B$1:$N$1</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$B$1:$N$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2934,7 +5186,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$B$5:$N$5</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$B$5:$N$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2942,43 +5194,43 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="13"/>
                       <c:pt idx="0">
-                        <c:v>0.91954998166608903</c:v>
+                        <c:v>0.59754596000000004</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.91855858043237404</c:v>
+                        <c:v>0.66172584400000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.91474222299999997</c:v>
+                        <c:v>0.72139013900000004</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.90909420249983397</c:v>
+                        <c:v>0.76848830796363898</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.90532947981548295</c:v>
+                        <c:v>0.79443820399999998</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.901749651038111</c:v>
+                        <c:v>0.80706743400000003</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.89765922230408901</c:v>
+                        <c:v>0.81352836828397301</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.89268393800000001</c:v>
+                        <c:v>0.809530086571837</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.88860660994894103</c:v>
+                        <c:v>0.80441675300000004</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.88607565499999996</c:v>
+                        <c:v>0.80060377199999999</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0.88553420699999996</c:v>
+                        <c:v>0.79774718415425405</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0.88696162755146801</c:v>
+                        <c:v>0.794864287</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0.89036151570502797</c:v>
+                        <c:v>0.79148882099999995</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3208,7 +5460,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Angle sweep'!$A$3</c:f>
+              <c:f>'Angle sweep 1'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3230,7 +5482,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Angle sweep'!$B$1:$N$1</c:f>
+              <c:f>'Angle sweep 1'!$B$1:$N$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3279,48 +5531,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Angle sweep'!$B$3:$N$3</c:f>
+              <c:f>'Angle sweep 1'!$B$3:$N$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>972.91553563069704</c:v>
+                  <c:v>999.67290400000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1025.18674318121</c:v>
+                  <c:v>1051.5904290000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1119.9912549999999</c:v>
+                  <c:v>1145.6603640000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1241.7238235663301</c:v>
+                  <c:v>1266.3741362820599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1417.00325438242</c:v>
+                  <c:v>1440.3423660000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1596.44767777365</c:v>
+                  <c:v>1618.4232239999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1741.9739575982401</c:v>
+                  <c:v>1762.68597917959</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1876.909574</c:v>
+                  <c:v>1894.0509189105001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1966.23652632229</c:v>
+                  <c:v>1979.171998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2009.7353479999999</c:v>
+                  <c:v>2021.3484390000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2010.6556230000001</c:v>
+                  <c:v>2023.9600046640001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1967.5717731997099</c:v>
+                  <c:v>1982.622439</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1884.52442745033</c:v>
+                  <c:v>1901.905806</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -3355,7 +5607,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$A$2</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$A$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3382,7 +5634,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$B$1:$N$1</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$B$1:$N$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3436,7 +5688,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$B$2:$N$2</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$B$2:$N$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3444,43 +5696,43 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="13"/>
                       <c:pt idx="0">
-                        <c:v>5.4456806692749904</c:v>
+                        <c:v>11.190898300000001</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5.7382572538733596</c:v>
+                        <c:v>11.772092150000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>6.2689046529999999</c:v>
+                        <c:v>12.82516369</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>6.9502759231713904</c:v>
+                        <c:v>14.176501251057701</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>7.9313639756896599</c:v>
+                        <c:v>16.12399903</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>8.9357646578489405</c:v>
+                        <c:v>18.117535879999998</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>9.7503159933855006</c:v>
+                        <c:v>19.732493955084699</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>10.50558842</c:v>
+                        <c:v>21.2030666547987</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>11.005576384053199</c:v>
+                        <c:v>22.155959679999999</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>11.249051469999999</c:v>
+                        <c:v>22.628106379999998</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>11.254202510000001</c:v>
+                        <c:v>22.657341709811401</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>11.013050134695201</c:v>
+                        <c:v>22.194585849999999</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>10.5482108872792</c:v>
+                        <c:v>21.29099866</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3501,7 +5753,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$A$4</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$A$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3528,7 +5780,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$B$1:$N$1</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$B$1:$N$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3582,7 +5834,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$B$4:$N$4</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$B$4:$N$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3590,43 +5842,43 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="13"/>
                       <c:pt idx="0">
-                        <c:v>46.020092488816601</c:v>
+                        <c:v>44.61684125</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>33.426667085846901</c:v>
+                        <c:v>32.458009220000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>23.133837509999999</c:v>
+                        <c:v>22.51457018</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>15.670199336533299</c:v>
+                        <c:v>15.2810235370521</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>11.6709573201219</c:v>
+                        <c:v>11.4052723</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>9.5576568572570295</c:v>
+                        <c:v>9.3560612320000001</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>8.2538517955308599</c:v>
+                        <c:v>8.0863853539543697</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>7.8752400309999997</c:v>
+                        <c:v>7.61196584602747</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>7.7466087839824898</c:v>
+                        <c:v>7.3454053410000002</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>7.8084900910000004</c:v>
+                        <c:v>7.3810254720000001</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>8.1386970529999996</c:v>
+                        <c:v>7.7898421731673704</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>8.7164029427151402</c:v>
+                        <c:v>8.4123489730000003</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>9.6353484943634093</c:v>
+                        <c:v>9.3794306330000001</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3647,7 +5899,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$A$5</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$A$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3674,7 +5926,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$B$1:$N$1</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$B$1:$N$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3728,7 +5980,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$B$5:$N$5</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$B$5:$N$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3736,43 +5988,43 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="13"/>
                       <c:pt idx="0">
-                        <c:v>0.91954998166608903</c:v>
+                        <c:v>0.59754596000000004</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.91855858043237404</c:v>
+                        <c:v>0.66172584400000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.91474222299999997</c:v>
+                        <c:v>0.72139013900000004</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.90909420249983397</c:v>
+                        <c:v>0.76848830796363898</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.90532947981548295</c:v>
+                        <c:v>0.79443820399999998</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.901749651038111</c:v>
+                        <c:v>0.80706743400000003</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.89765922230408901</c:v>
+                        <c:v>0.81352836828397301</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.89268393800000001</c:v>
+                        <c:v>0.809530086571837</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.88860660994894103</c:v>
+                        <c:v>0.80441675300000004</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.88607565499999996</c:v>
+                        <c:v>0.80060377199999999</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0.88553420699999996</c:v>
+                        <c:v>0.79774718415425405</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0.88696162755146801</c:v>
+                        <c:v>0.794864287</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0.89036151570502797</c:v>
+                        <c:v>0.79148882099999995</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4002,7 +6254,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Angle sweep'!$A$4</c:f>
+              <c:f>'Angle sweep 1'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4024,7 +6276,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Angle sweep'!$B$1:$N$1</c:f>
+              <c:f>'Angle sweep 1'!$B$1:$N$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4073,48 +6325,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Angle sweep'!$B$4:$N$4</c:f>
+              <c:f>'Angle sweep 1'!$B$4:$N$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>46.020092488816601</c:v>
+                  <c:v>44.61684125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.426667085846901</c:v>
+                  <c:v>32.458009220000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.133837509999999</c:v>
+                  <c:v>22.51457018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.670199336533299</c:v>
+                  <c:v>15.2810235370521</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.6709573201219</c:v>
+                  <c:v>11.4052723</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5576568572570295</c:v>
+                  <c:v>9.3560612320000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2538517955308599</c:v>
+                  <c:v>8.0863853539543697</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8752400309999997</c:v>
+                  <c:v>7.61196584602747</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.7466087839824898</c:v>
+                  <c:v>7.3454053410000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8084900910000004</c:v>
+                  <c:v>7.3810254720000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.1386970529999996</c:v>
+                  <c:v>7.7898421731673704</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.7164029427151402</c:v>
+                  <c:v>8.4123489730000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.6353484943634093</c:v>
+                  <c:v>9.3794306330000001</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -4149,7 +6401,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$A$2</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$A$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4176,7 +6428,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$B$1:$N$1</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$B$1:$N$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4230,7 +6482,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$B$2:$N$2</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$B$2:$N$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4238,43 +6490,43 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="13"/>
                       <c:pt idx="0">
-                        <c:v>5.4456806692749904</c:v>
+                        <c:v>11.190898300000001</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5.7382572538733596</c:v>
+                        <c:v>11.772092150000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>6.2689046529999999</c:v>
+                        <c:v>12.82516369</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>6.9502759231713904</c:v>
+                        <c:v>14.176501251057701</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>7.9313639756896599</c:v>
+                        <c:v>16.12399903</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>8.9357646578489405</c:v>
+                        <c:v>18.117535879999998</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>9.7503159933855006</c:v>
+                        <c:v>19.732493955084699</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>10.50558842</c:v>
+                        <c:v>21.2030666547987</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>11.005576384053199</c:v>
+                        <c:v>22.155959679999999</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>11.249051469999999</c:v>
+                        <c:v>22.628106379999998</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>11.254202510000001</c:v>
+                        <c:v>22.657341709811401</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>11.013050134695201</c:v>
+                        <c:v>22.194585849999999</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>10.5482108872792</c:v>
+                        <c:v>21.29099866</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4295,7 +6547,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$A$3</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$A$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4322,7 +6574,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$B$1:$N$1</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$B$1:$N$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4376,7 +6628,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$B$3:$N$3</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$B$3:$N$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4384,43 +6636,43 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="13"/>
                       <c:pt idx="0">
-                        <c:v>972.91553563069704</c:v>
+                        <c:v>999.67290400000002</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1025.18674318121</c:v>
+                        <c:v>1051.5904290000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1119.9912549999999</c:v>
+                        <c:v>1145.6603640000001</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1241.7238235663301</c:v>
+                        <c:v>1266.3741362820599</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>1417.00325438242</c:v>
+                        <c:v>1440.3423660000001</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>1596.44767777365</c:v>
+                        <c:v>1618.4232239999999</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>1741.9739575982401</c:v>
+                        <c:v>1762.68597917959</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>1876.909574</c:v>
+                        <c:v>1894.0509189105001</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>1966.23652632229</c:v>
+                        <c:v>1979.171998</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>2009.7353479999999</c:v>
+                        <c:v>2021.3484390000001</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>2010.6556230000001</c:v>
+                        <c:v>2023.9600046640001</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>1967.5717731997099</c:v>
+                        <c:v>1982.622439</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>1884.52442745033</c:v>
+                        <c:v>1901.905806</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4441,7 +6693,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$A$5</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$A$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4468,7 +6720,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$B$1:$N$1</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$B$1:$N$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4522,7 +6774,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$B$5:$N$5</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$B$5:$N$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4530,43 +6782,43 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="13"/>
                       <c:pt idx="0">
-                        <c:v>0.91954998166608903</c:v>
+                        <c:v>0.59754596000000004</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.91855858043237404</c:v>
+                        <c:v>0.66172584400000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.91474222299999997</c:v>
+                        <c:v>0.72139013900000004</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.90909420249983397</c:v>
+                        <c:v>0.76848830796363898</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.90532947981548295</c:v>
+                        <c:v>0.79443820399999998</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.901749651038111</c:v>
+                        <c:v>0.80706743400000003</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.89765922230408901</c:v>
+                        <c:v>0.81352836828397301</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.89268393800000001</c:v>
+                        <c:v>0.809530086571837</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.88860660994894103</c:v>
+                        <c:v>0.80441675300000004</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.88607565499999996</c:v>
+                        <c:v>0.80060377199999999</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0.88553420699999996</c:v>
+                        <c:v>0.79774718415425405</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0.88696162755146801</c:v>
+                        <c:v>0.794864287</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0.89036151570502797</c:v>
+                        <c:v>0.79148882099999995</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4796,7 +7048,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Angle sweep'!$A$5</c:f>
+              <c:f>'Angle sweep 1'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4818,7 +7070,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Angle sweep'!$B$1:$N$1</c:f>
+              <c:f>'Angle sweep 1'!$B$1:$N$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4867,48 +7119,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Angle sweep'!$B$5:$N$5</c:f>
+              <c:f>'Angle sweep 1'!$B$5:$N$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.91954998166608903</c:v>
+                  <c:v>0.59754596000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91855858043237404</c:v>
+                  <c:v>0.66172584400000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91474222299999997</c:v>
+                  <c:v>0.72139013900000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90909420249983397</c:v>
+                  <c:v>0.76848830796363898</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90532947981548295</c:v>
+                  <c:v>0.79443820399999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.901749651038111</c:v>
+                  <c:v>0.80706743400000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89765922230408901</c:v>
+                  <c:v>0.81352836828397301</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.89268393800000001</c:v>
+                  <c:v>0.809530086571837</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88860660994894103</c:v>
+                  <c:v>0.80441675300000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.88607565499999996</c:v>
+                  <c:v>0.80060377199999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.88553420699999996</c:v>
+                  <c:v>0.79774718415425405</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.88696162755146801</c:v>
+                  <c:v>0.794864287</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.89036151570502797</c:v>
+                  <c:v>0.79148882099999995</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -4943,7 +7195,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$A$2</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$A$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4970,7 +7222,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$B$1:$N$1</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$B$1:$N$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5024,7 +7276,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$B$2:$N$2</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$B$2:$N$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5032,43 +7284,43 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="13"/>
                       <c:pt idx="0">
-                        <c:v>5.4456806692749904</c:v>
+                        <c:v>11.190898300000001</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5.7382572538733596</c:v>
+                        <c:v>11.772092150000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>6.2689046529999999</c:v>
+                        <c:v>12.82516369</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>6.9502759231713904</c:v>
+                        <c:v>14.176501251057701</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>7.9313639756896599</c:v>
+                        <c:v>16.12399903</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>8.9357646578489405</c:v>
+                        <c:v>18.117535879999998</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>9.7503159933855006</c:v>
+                        <c:v>19.732493955084699</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>10.50558842</c:v>
+                        <c:v>21.2030666547987</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>11.005576384053199</c:v>
+                        <c:v>22.155959679999999</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>11.249051469999999</c:v>
+                        <c:v>22.628106379999998</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>11.254202510000001</c:v>
+                        <c:v>22.657341709811401</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>11.013050134695201</c:v>
+                        <c:v>22.194585849999999</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>10.5482108872792</c:v>
+                        <c:v>21.29099866</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5089,7 +7341,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$A$3</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$A$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5116,7 +7368,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$B$1:$N$1</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$B$1:$N$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5170,7 +7422,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$B$3:$N$3</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$B$3:$N$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5178,43 +7430,43 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="13"/>
                       <c:pt idx="0">
-                        <c:v>972.91553563069704</c:v>
+                        <c:v>999.67290400000002</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1025.18674318121</c:v>
+                        <c:v>1051.5904290000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1119.9912549999999</c:v>
+                        <c:v>1145.6603640000001</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1241.7238235663301</c:v>
+                        <c:v>1266.3741362820599</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>1417.00325438242</c:v>
+                        <c:v>1440.3423660000001</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>1596.44767777365</c:v>
+                        <c:v>1618.4232239999999</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>1741.9739575982401</c:v>
+                        <c:v>1762.68597917959</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>1876.909574</c:v>
+                        <c:v>1894.0509189105001</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>1966.23652632229</c:v>
+                        <c:v>1979.171998</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>2009.7353479999999</c:v>
+                        <c:v>2021.3484390000001</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>2010.6556230000001</c:v>
+                        <c:v>2023.9600046640001</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>1967.5717731997099</c:v>
+                        <c:v>1982.622439</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>1884.52442745033</c:v>
+                        <c:v>1901.905806</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5235,7 +7487,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$A$4</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$A$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5262,7 +7514,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$B$1:$N$1</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$B$1:$N$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5316,7 +7568,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Angle sweep'!$B$4:$N$4</c15:sqref>
+                          <c15:sqref>'Angle sweep 1'!$B$4:$N$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5324,43 +7576,43 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="13"/>
                       <c:pt idx="0">
-                        <c:v>46.020092488816601</c:v>
+                        <c:v>44.61684125</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>33.426667085846901</c:v>
+                        <c:v>32.458009220000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>23.133837509999999</c:v>
+                        <c:v>22.51457018</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>15.670199336533299</c:v>
+                        <c:v>15.2810235370521</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>11.6709573201219</c:v>
+                        <c:v>11.4052723</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>9.5576568572570295</c:v>
+                        <c:v>9.3560612320000001</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>8.2538517955308599</c:v>
+                        <c:v>8.0863853539543697</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>7.8752400309999997</c:v>
+                        <c:v>7.61196584602747</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>7.7466087839824898</c:v>
+                        <c:v>7.3454053410000002</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>7.8084900910000004</c:v>
+                        <c:v>7.3810254720000001</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>8.1386970529999996</c:v>
+                        <c:v>7.7898421731673704</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>8.7164029427151402</c:v>
+                        <c:v>8.4123489730000003</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>9.6353484943634093</c:v>
+                        <c:v>9.3794306330000001</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5534,7 +7786,870 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Angle Sweep 2'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Energy (MWh)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Angle Sweep 2'!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Angle Sweep 2'!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>22.628106379999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.650939019999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.669423720000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.684149309999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.69528356</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.701590499999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.70292869</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.699227350000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.6903975</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.676441109999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.657341710000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-08B6-426B-8A69-6765BCE404BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="592440464"/>
+        <c:axId val="592438544"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Yield (h)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>40</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$B$3:$L$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>2021.3484390000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2023.3880590000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2025.0392790000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2026.354703</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2027.349316</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2027.9127100000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2028.032248</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2027.701611</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2026.9128479999999</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2025.6661369999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2023.9600049999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-08B6-426B-8A69-6765BCE404BC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Bifacial gain (%)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>40</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$B$4:$L$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>7.3810254720000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.4066773389999998</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.4362122230000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7.4701644749999998</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7.5092458000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7.5513110909999996</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7.595614683</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.6418931099999998</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7.6897286840000003</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7.7390607170000001</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>7.7898421730000003</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-08B6-426B-8A69-6765BCE404BC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>PR (pu)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>40</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Angle Sweep 2'!$B$5:$L$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.80060377199999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.80029604700000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.79999565299999997</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.79969710800000005</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.79940292099999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.79912435599999998</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.79885106299999997</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.79857933699999994</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.79830546300000005</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.79802832999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.797747184</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-08B6-426B-8A69-6765BCE404BC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="592440464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592438544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="592438544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592440464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5854,6 +8969,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6357,7 +9512,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6860,7 +10015,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7363,7 +10518,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7866,7 +11021,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8369,7 +11524,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8872,7 +12027,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9375,7 +12530,2019 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10037,16 +15204,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>678180</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10073,16 +15240,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>670560</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10111,16 +15278,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>678180</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10149,16 +15316,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>670560</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10166,6 +15333,163 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1F0433E-03B6-490C-9D66-9C09529944DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60531D4-412E-450F-B957-43F2C8E3EA09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35C5CDD8-55A6-4B25-839D-0B2070322E94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB0C74CE-E1DD-4BB3-9C57-C65F5B8CD545}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A91CB18-2AD3-4160-8B83-3864AF73A475}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10485,10 +15809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10512,13 +15836,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>12.844466363657499</v>
+        <v>25.86256496</v>
       </c>
       <c r="C2" s="1">
-        <v>12.839702888266901</v>
+        <v>25.852916910000001</v>
       </c>
       <c r="D2" s="1">
-        <v>11.249051467464801</v>
+        <v>22.628106379999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -10526,13 +15850,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>2294.7693100322999</v>
+        <v>2310.2797220000002</v>
       </c>
       <c r="C3" s="1">
-        <v>2293.9182760674798</v>
+        <v>2309.4178700000002</v>
       </c>
       <c r="D3" s="1">
-        <v>2009.73534778765</v>
+        <v>2021.3484390000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -10540,13 +15864,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>5.4495356183982198</v>
+        <v>5.3324695159999997</v>
       </c>
       <c r="C4" s="1">
-        <v>5.5263320379299703</v>
+        <v>5.4103424990000004</v>
       </c>
       <c r="D4" s="1">
-        <v>7.8084900910490198</v>
+        <v>7.3810254720000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -10554,13 +15878,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>0.88626209304887205</v>
+        <v>0.82554258599999997</v>
       </c>
       <c r="C5" s="1">
-        <v>0.88623649569491303</v>
+        <v>0.82476116300000002</v>
       </c>
       <c r="D5" s="1">
-        <v>0.88607565547896805</v>
+        <v>0.80060377199999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -10583,6 +15907,9 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -10605,7 +15932,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -10646,6 +15973,30 @@
       </c>
       <c r="B18">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -10656,10 +16007,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF58313-CD02-44B2-B180-60025DF72031}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10714,43 +16065,43 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>5.4456806692749904</v>
+        <v>11.190898300000001</v>
       </c>
       <c r="C2" s="1">
-        <v>5.7382572538733596</v>
+        <v>11.772092150000001</v>
       </c>
       <c r="D2" s="1">
-        <v>6.2689046529999999</v>
+        <v>12.82516369</v>
       </c>
       <c r="E2" s="1">
-        <v>6.9502759231713904</v>
+        <v>14.176501251057701</v>
       </c>
       <c r="F2" s="1">
-        <v>7.9313639756896599</v>
+        <v>16.12399903</v>
       </c>
       <c r="G2" s="1">
-        <v>8.9357646578489405</v>
+        <v>18.117535879999998</v>
       </c>
       <c r="H2" s="1">
-        <v>9.7503159933855006</v>
+        <v>19.732493955084699</v>
       </c>
       <c r="I2" s="1">
-        <v>10.50558842</v>
+        <v>21.2030666547987</v>
       </c>
       <c r="J2" s="1">
-        <v>11.005576384053199</v>
+        <v>22.155959679999999</v>
       </c>
       <c r="K2" s="1">
-        <v>11.249051469999999</v>
+        <v>22.628106379999998</v>
       </c>
       <c r="L2" s="1">
-        <v>11.254202510000001</v>
+        <v>22.657341709811401</v>
       </c>
       <c r="M2" s="1">
-        <v>11.013050134695201</v>
+        <v>22.194585849999999</v>
       </c>
       <c r="N2" s="1">
-        <v>10.5482108872792</v>
+        <v>21.29099866</v>
       </c>
       <c r="O2" t="s">
         <v>2</v>
@@ -10761,43 +16112,43 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>972.91553563069704</v>
+        <v>999.67290400000002</v>
       </c>
       <c r="C3" s="1">
-        <v>1025.18674318121</v>
+        <v>1051.5904290000001</v>
       </c>
       <c r="D3" s="1">
-        <v>1119.9912549999999</v>
+        <v>1145.6603640000001</v>
       </c>
       <c r="E3" s="1">
-        <v>1241.7238235663301</v>
+        <v>1266.3741362820599</v>
       </c>
       <c r="F3" s="1">
-        <v>1417.00325438242</v>
+        <v>1440.3423660000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1596.44767777365</v>
+        <v>1618.4232239999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1741.9739575982401</v>
+        <v>1762.68597917959</v>
       </c>
       <c r="I3" s="1">
-        <v>1876.909574</v>
+        <v>1894.0509189105001</v>
       </c>
       <c r="J3" s="1">
-        <v>1966.23652632229</v>
+        <v>1979.171998</v>
       </c>
       <c r="K3" s="1">
-        <v>2009.7353479999999</v>
+        <v>2021.3484390000001</v>
       </c>
       <c r="L3" s="1">
-        <v>2010.6556230000001</v>
+        <v>2023.9600046640001</v>
       </c>
       <c r="M3" s="1">
-        <v>1967.5717731997099</v>
+        <v>1982.622439</v>
       </c>
       <c r="N3" s="1">
-        <v>1884.52442745033</v>
+        <v>1901.905806</v>
       </c>
       <c r="O3" t="s">
         <v>3</v>
@@ -10808,43 +16159,43 @@
         <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>46.020092488816601</v>
+        <v>44.61684125</v>
       </c>
       <c r="C4" s="1">
-        <v>33.426667085846901</v>
+        <v>32.458009220000001</v>
       </c>
       <c r="D4" s="1">
-        <v>23.133837509999999</v>
+        <v>22.51457018</v>
       </c>
       <c r="E4" s="1">
-        <v>15.670199336533299</v>
+        <v>15.2810235370521</v>
       </c>
       <c r="F4" s="1">
-        <v>11.6709573201219</v>
+        <v>11.4052723</v>
       </c>
       <c r="G4" s="1">
-        <v>9.5576568572570295</v>
+        <v>9.3560612320000001</v>
       </c>
       <c r="H4" s="1">
-        <v>8.2538517955308599</v>
+        <v>8.0863853539543697</v>
       </c>
       <c r="I4" s="1">
-        <v>7.8752400309999997</v>
+        <v>7.61196584602747</v>
       </c>
       <c r="J4" s="1">
-        <v>7.7466087839824898</v>
+        <v>7.3454053410000002</v>
       </c>
       <c r="K4" s="1">
-        <v>7.8084900910000004</v>
+        <v>7.3810254720000001</v>
       </c>
       <c r="L4" s="1">
-        <v>8.1386970529999996</v>
+        <v>7.7898421731673704</v>
       </c>
       <c r="M4" s="1">
-        <v>8.7164029427151402</v>
+        <v>8.4123489730000003</v>
       </c>
       <c r="N4" s="1">
-        <v>9.6353484943634093</v>
+        <v>9.3794306330000001</v>
       </c>
       <c r="O4" t="s">
         <v>4</v>
@@ -10855,46 +16206,488 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>0.91954998166608903</v>
+        <v>0.59754596000000004</v>
       </c>
       <c r="C5" s="1">
-        <v>0.91855858043237404</v>
+        <v>0.66172584400000001</v>
       </c>
       <c r="D5" s="1">
-        <v>0.91474222299999997</v>
+        <v>0.72139013900000004</v>
       </c>
       <c r="E5" s="1">
-        <v>0.90909420249983397</v>
+        <v>0.76848830796363898</v>
       </c>
       <c r="F5" s="1">
-        <v>0.90532947981548295</v>
+        <v>0.79443820399999998</v>
       </c>
       <c r="G5" s="1">
-        <v>0.901749651038111</v>
+        <v>0.80706743400000003</v>
       </c>
       <c r="H5" s="1">
-        <v>0.89765922230408901</v>
+        <v>0.81352836828397301</v>
       </c>
       <c r="I5" s="1">
-        <v>0.89268393800000001</v>
+        <v>0.809530086571837</v>
       </c>
       <c r="J5" s="1">
-        <v>0.88860660994894103</v>
+        <v>0.80441675300000004</v>
       </c>
       <c r="K5" s="1">
-        <v>0.88607565499999996</v>
+        <v>0.80060377199999999</v>
       </c>
       <c r="L5" s="1">
-        <v>0.88553420699999996</v>
+        <v>0.79774718415425405</v>
       </c>
       <c r="M5" s="1">
-        <v>0.88696162755146801</v>
+        <v>0.794864287</v>
       </c>
       <c r="N5" s="1">
-        <v>0.89036151570502797</v>
+        <v>0.79148882099999995</v>
       </c>
       <c r="O5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>40.450000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>-3.73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02903FD9-4921-4D84-910F-B2D9240B25EE}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>30</v>
+      </c>
+      <c r="C1">
+        <v>31</v>
+      </c>
+      <c r="D1">
+        <v>32</v>
+      </c>
+      <c r="E1">
+        <v>33</v>
+      </c>
+      <c r="F1">
+        <v>34</v>
+      </c>
+      <c r="G1">
+        <v>35</v>
+      </c>
+      <c r="H1">
+        <v>36</v>
+      </c>
+      <c r="I1">
+        <v>37</v>
+      </c>
+      <c r="J1">
+        <v>38</v>
+      </c>
+      <c r="K1">
+        <v>39</v>
+      </c>
+      <c r="L1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>22.628106379999998</v>
+      </c>
+      <c r="C2" s="1">
+        <v>22.650939019999999</v>
+      </c>
+      <c r="D2" s="1">
+        <v>22.669423720000001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>22.684149309999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>22.69528356</v>
+      </c>
+      <c r="G2" s="1">
+        <v>22.701590499999998</v>
+      </c>
+      <c r="H2" s="1">
+        <v>22.70292869</v>
+      </c>
+      <c r="I2" s="1">
+        <v>22.699227350000001</v>
+      </c>
+      <c r="J2" s="1">
+        <v>22.6903975</v>
+      </c>
+      <c r="K2" s="1">
+        <v>22.676441109999999</v>
+      </c>
+      <c r="L2" s="1">
+        <v>22.657341710000001</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2021.3484390000001</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2023.3880590000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2025.0392790000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2026.354703</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2027.349316</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2027.9127100000001</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2028.032248</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2027.701611</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2026.9128479999999</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2025.6661369999999</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2023.9600049999999</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7.3810254720000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7.4066773389999998</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7.4362122230000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7.4701644749999998</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7.5092458000000004</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7.5513110909999996</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7.595614683</v>
+      </c>
+      <c r="I4" s="1">
+        <v>7.6418931099999998</v>
+      </c>
+      <c r="J4" s="1">
+        <v>7.6897286840000003</v>
+      </c>
+      <c r="K4" s="1">
+        <v>7.7390607170000001</v>
+      </c>
+      <c r="L4" s="1">
+        <v>7.7898421730000003</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.80060377199999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.80029604700000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.79999565299999997</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.79969710800000005</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.79940292099999999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.79912435599999998</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.79885106299999997</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.79857933699999994</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.79830546300000005</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.79802832999999995</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.797747184</v>
+      </c>
+      <c r="M5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>40.450000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>-3.73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/Solar Tool/Results/Global comparison.xlsx
+++ b/Solar Tool/Results/Global comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus\Documents\GitHub\TFG-electrica\Solar Tool\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325D4C50-CEE2-4BCE-817E-F25AFFF2EF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7572A03-E08A-40C3-A512-84EBAAF93DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking option" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="31">
   <si>
     <t>Backtrack</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Bifacial gain (%)</t>
-  </si>
-  <si>
-    <t>Fixed Tilt</t>
   </si>
   <si>
     <t>module</t>
@@ -122,6 +119,18 @@
   </si>
   <si>
     <t>bifaciality</t>
+  </si>
+  <si>
+    <t>installed power</t>
+  </si>
+  <si>
+    <t>kWp</t>
+  </si>
+  <si>
+    <t>type_plot</t>
+  </si>
+  <si>
+    <t>Monthly Energy</t>
   </si>
 </sst>
 </file>
@@ -252,37 +261,89 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tracking option'!$B$1:$D$1</c:f>
+              <c:f>'Tracking option'!$B$1:$C$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Backtrack</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Track</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Fixed Tilt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tracking option'!$B$2:$D$2</c:f>
+              <c:f>'Tracking option'!$B$2:$C$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>25.86256496</c:v>
+                  <c:v>18.851927596797498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.852916910000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.628106379999998</c:v>
+                  <c:v>18.0989465867628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -294,8 +355,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -338,25 +400,80 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Tracking option'!$B$1:$D$1</c15:sqref>
+                          <c15:sqref>'Tracking option'!$B$1:$C$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
                         <c:v>Backtrack</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>Track</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Fixed Tilt</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -374,13 +491,10 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>2310.2797220000002</c:v>
+                        <c:v>1684.0257765198</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2309.4178700000002</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2021.3484390000001</c:v>
+                        <c:v>1616.7626585379701</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -423,25 +537,80 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Tracking option'!$B$1:$D$1</c15:sqref>
+                          <c15:sqref>'Tracking option'!$B$1:$C$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
                         <c:v>Backtrack</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>Track</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Fixed Tilt</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -459,13 +628,10 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>5.3324695159999997</c:v>
+                        <c:v>3.7931354191507198</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5.4103424990000004</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>7.3810254720000001</c:v>
+                        <c:v>2.5740574211204401</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -508,25 +674,80 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Tracking option'!$B$1:$D$1</c15:sqref>
+                          <c15:sqref>'Tracking option'!$B$1:$C$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
                         <c:v>Backtrack</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>Track</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Fixed Tilt</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -544,13 +765,10 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>0.82554258599999997</c:v>
+                        <c:v>0.868435596029422</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.82476116300000002</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.80060377199999999</c:v>
+                        <c:v>0.88150871462507596</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1043,7 +1261,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle Sweep 2'!$A$4</c15:sqref>
@@ -1070,7 +1288,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle Sweep 2'!$B$1:$L$1</c15:sqref>
@@ -1118,7 +1336,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle Sweep 2'!$B$4:$L$4</c15:sqref>
@@ -1177,7 +1395,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle Sweep 2'!$A$5</c15:sqref>
@@ -1204,7 +1422,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle Sweep 2'!$B$1:$L$1</c15:sqref>
@@ -1252,7 +1470,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle Sweep 2'!$B$5:$L$5</c15:sqref>
@@ -1796,7 +2014,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle Sweep 2'!$A$3</c15:sqref>
@@ -1823,7 +2041,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle Sweep 2'!$B$1:$L$1</c15:sqref>
@@ -1871,7 +2089,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle Sweep 2'!$B$3:$L$3</c15:sqref>
@@ -1930,7 +2148,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle Sweep 2'!$A$5</c15:sqref>
@@ -1957,7 +2175,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle Sweep 2'!$B$1:$L$1</c15:sqref>
@@ -2005,7 +2223,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle Sweep 2'!$B$5:$L$5</c15:sqref>
@@ -2539,7 +2757,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle Sweep 2'!$A$3</c15:sqref>
@@ -2566,7 +2784,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle Sweep 2'!$B$1:$L$1</c15:sqref>
@@ -2614,7 +2832,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle Sweep 2'!$B$3:$L$3</c15:sqref>
@@ -2673,7 +2891,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle Sweep 2'!$A$4</c15:sqref>
@@ -2700,7 +2918,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle Sweep 2'!$B$1:$L$1</c15:sqref>
@@ -2748,7 +2966,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle Sweep 2'!$B$4:$L$4</c15:sqref>
@@ -2978,6 +3196,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Yield (kWh/kWp)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3026,7 +3269,6 @@
                   <c:v>Yield (h)</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -3039,41 +3281,91 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tracking option'!$B$1:$D$1</c:f>
+              <c:f>'Tracking option'!$B$1:$C$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Backtrack</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Track</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Fixed Tilt</c:v>
-                </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tracking option'!$B$3:$D$3</c:f>
+              <c:f>'Tracking option'!$B$3:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2310.2797220000002</c:v>
+                  <c:v>1684.0257765198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2309.4178700000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021.3484390000001</c:v>
+                  <c:v>1616.7626585379701</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -3083,8 +3375,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -3127,25 +3420,80 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Tracking option'!$B$1:$D$1</c15:sqref>
+                          <c15:sqref>'Tracking option'!$B$1:$C$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
                         <c:v>Backtrack</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>Track</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Fixed Tilt</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3155,21 +3503,18 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Tracking option'!$B$2:$D$2</c15:sqref>
+                          <c15:sqref>'Tracking option'!$B$2:$C$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>25.86256496</c:v>
+                        <c:v>18.851927596797498</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>25.852916910000001</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>22.628106379999998</c:v>
+                        <c:v>18.0989465867628</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3187,7 +3532,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Tracking option'!$A$4</c15:sqref>
@@ -3212,49 +3557,101 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Tracking option'!$B$1:$D$1</c15:sqref>
+                          <c15:sqref>'Tracking option'!$B$1:$C$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
                         <c:v>Backtrack</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>Track</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Fixed Tilt</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Tracking option'!$B$4:$D$4</c15:sqref>
+                          <c15:sqref>'Tracking option'!$B$4:$C$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>5.3324695159999997</c:v>
+                        <c:v>3.7931354191507198</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5.4103424990000004</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>7.3810254720000001</c:v>
+                        <c:v>2.5740574211204401</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3272,7 +3669,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Tracking option'!$A$5</c15:sqref>
@@ -3297,49 +3694,101 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Tracking option'!$B$1:$D$1</c15:sqref>
+                          <c15:sqref>'Tracking option'!$B$1:$C$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
                         <c:v>Backtrack</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>Track</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Fixed Tilt</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Tracking option'!$B$5:$D$5</c15:sqref>
+                          <c15:sqref>'Tracking option'!$B$5:$C$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>0.82554258599999997</c:v>
+                        <c:v>0.868435596029422</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.82476116300000002</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.80060377199999999</c:v>
+                        <c:v>0.88150871462507596</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3576,7 +4025,6 @@
                   <c:v>Bifacial gain (%)</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -3589,41 +4037,91 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tracking option'!$B$1:$D$1</c:f>
+              <c:f>'Tracking option'!$B$1:$C$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Backtrack</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Track</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Fixed Tilt</c:v>
-                </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tracking option'!$B$4:$D$4</c:f>
+              <c:f>'Tracking option'!$B$4:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.3324695159999997</c:v>
+                  <c:v>3.7931354191507198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4103424990000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.3810254720000001</c:v>
+                  <c:v>2.5740574211204401</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -3633,8 +4131,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -3677,25 +4176,80 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Tracking option'!$B$1:$D$1</c15:sqref>
+                          <c15:sqref>'Tracking option'!$B$1:$C$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
                         <c:v>Backtrack</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>Track</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Fixed Tilt</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3705,21 +4259,18 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Tracking option'!$B$2:$D$2</c15:sqref>
+                          <c15:sqref>'Tracking option'!$B$2:$C$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>25.86256496</c:v>
+                        <c:v>18.851927596797498</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>25.852916910000001</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>22.628106379999998</c:v>
+                        <c:v>18.0989465867628</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3737,7 +4288,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Tracking option'!$A$3</c15:sqref>
@@ -3762,49 +4313,101 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Tracking option'!$B$1:$D$1</c15:sqref>
+                          <c15:sqref>'Tracking option'!$B$1:$C$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
                         <c:v>Backtrack</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>Track</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Fixed Tilt</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Tracking option'!$B$3:$D$3</c15:sqref>
+                          <c15:sqref>'Tracking option'!$B$3:$C$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>2310.2797220000002</c:v>
+                        <c:v>1684.0257765198</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2309.4178700000002</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2021.3484390000001</c:v>
+                        <c:v>1616.7626585379701</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3822,7 +4425,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Tracking option'!$A$5</c15:sqref>
@@ -3847,49 +4450,101 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Tracking option'!$B$1:$D$1</c15:sqref>
+                          <c15:sqref>'Tracking option'!$B$1:$C$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
                         <c:v>Backtrack</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>Track</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Fixed Tilt</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Tracking option'!$B$5:$D$5</c15:sqref>
+                          <c15:sqref>'Tracking option'!$B$5:$C$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>0.82554258599999997</c:v>
+                        <c:v>0.868435596029422</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.82476116300000002</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.80060377199999999</c:v>
+                        <c:v>0.88150871462507596</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4126,7 +4781,6 @@
                   <c:v>PR (pu)</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -4139,41 +4793,91 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tracking option'!$B$1:$D$1</c:f>
+              <c:f>'Tracking option'!$B$1:$C$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Backtrack</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Track</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Fixed Tilt</c:v>
-                </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tracking option'!$B$5:$D$5</c:f>
+              <c:f>'Tracking option'!$B$5:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.82554258599999997</c:v>
+                  <c:v>0.868435596029422</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82476116300000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.80060377199999999</c:v>
+                  <c:v>0.88150871462507596</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -4183,8 +4887,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4227,25 +4932,80 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Tracking option'!$B$1:$D$1</c15:sqref>
+                          <c15:sqref>'Tracking option'!$B$1:$C$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
                         <c:v>Backtrack</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>Track</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Fixed Tilt</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4255,21 +5015,18 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Tracking option'!$B$2:$D$2</c15:sqref>
+                          <c15:sqref>'Tracking option'!$B$2:$C$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>25.86256496</c:v>
+                        <c:v>18.851927596797498</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>25.852916910000001</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>22.628106379999998</c:v>
+                        <c:v>18.0989465867628</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4287,7 +5044,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Tracking option'!$A$3</c15:sqref>
@@ -4312,49 +5069,101 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Tracking option'!$B$1:$D$1</c15:sqref>
+                          <c15:sqref>'Tracking option'!$B$1:$C$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
                         <c:v>Backtrack</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>Track</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Fixed Tilt</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Tracking option'!$B$3:$D$3</c15:sqref>
+                          <c15:sqref>'Tracking option'!$B$3:$C$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>2310.2797220000002</c:v>
+                        <c:v>1684.0257765198</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2309.4178700000002</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2021.3484390000001</c:v>
+                        <c:v>1616.7626585379701</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4372,7 +5181,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Tracking option'!$A$4</c15:sqref>
@@ -4397,49 +5206,101 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Tracking option'!$B$1:$D$1</c15:sqref>
+                          <c15:sqref>'Tracking option'!$B$1:$C$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
                         <c:v>Backtrack</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>Track</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Fixed Tilt</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Tracking option'!$B$4:$D$4</c15:sqref>
+                          <c15:sqref>'Tracking option'!$B$4:$C$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>5.3324695159999997</c:v>
+                        <c:v>3.7931354191507198</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5.4103424990000004</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>7.3810254720000001</c:v>
+                        <c:v>2.5740574211204401</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5419,6 +6280,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Yield (kWh/kWp)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8105,7 +8991,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle Sweep 2'!$A$4</c15:sqref>
@@ -8132,7 +9018,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle Sweep 2'!$B$1:$L$1</c15:sqref>
@@ -8180,7 +9066,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle Sweep 2'!$B$4:$L$4</c15:sqref>
@@ -8239,7 +9125,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle Sweep 2'!$A$5</c15:sqref>
@@ -8266,7 +9152,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle Sweep 2'!$B$1:$L$1</c15:sqref>
@@ -8314,7 +9200,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Angle Sweep 2'!$B$5:$L$5</c15:sqref>
@@ -15809,10 +16695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15820,183 +16706,171 @@
     <col min="1" max="1" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>25.86256496</v>
+        <v>18.851927596797498</v>
       </c>
       <c r="C2" s="1">
-        <v>25.852916910000001</v>
-      </c>
-      <c r="D2" s="1">
-        <v>22.628106379999998</v>
+        <v>18.0989465867628</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>2310.2797220000002</v>
+        <v>1684.0257765198</v>
       </c>
       <c r="C3" s="1">
-        <v>2309.4178700000002</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2021.3484390000001</v>
+        <v>1616.7626585379701</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>5.3324695159999997</v>
+        <v>3.7931354191507198</v>
       </c>
       <c r="C4" s="1">
-        <v>5.4103424990000004</v>
-      </c>
-      <c r="D4" s="1">
-        <v>7.3810254720000001</v>
+        <v>2.5740574211204401</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>0.82554258599999997</v>
+        <v>0.868435596029422</v>
       </c>
       <c r="C5" s="1">
-        <v>0.82476116300000002</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.80060377199999999</v>
+        <v>0.88150871462507596</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>11.19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
+      <c r="B13">
+        <v>40.450000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
-        <v>40.450000000000003</v>
+      <c r="B14">
+        <v>-3.73</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
-        <v>-3.73</v>
+      <c r="B15">
+        <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
+      <c r="B16">
         <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>0.2</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.75</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -16007,10 +16881,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF58313-CD02-44B2-B180-60025DF72031}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16249,114 +17123,125 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1">
+        <v>11.19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>40.450000000000003</v>
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-3.73</v>
+        <v>40.450000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>-3.73</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>180</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-60</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0.2</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
         <v>0.75</v>
       </c>
     </row>
@@ -16368,10 +17253,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02903FD9-4921-4D84-910F-B2D9240B25EE}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16579,114 +17464,125 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1">
+        <v>11.19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>40.450000000000003</v>
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-3.73</v>
+        <v>40.450000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>-3.73</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>180</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>34</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0.2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
         <v>0.75</v>
       </c>
     </row>
